--- a/listings/keykeg.xlsx
+++ b/listings/keykeg.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>Beer Name</t>
   </si>
@@ -73,19 +73,16 @@
     <t>Bone Machine</t>
   </si>
   <si>
-    <t>Pocklington</t>
-  </si>
-  <si>
-    <t>Hmmm, Action</t>
-  </si>
-  <si>
-    <t>Boutilliers</t>
-  </si>
-  <si>
-    <t>Faversham</t>
-  </si>
-  <si>
-    <t>Oatmeal Brown Stout</t>
+    <t>Pocklington, E Yorks</t>
+  </si>
+  <si>
+    <t>Ancho chilli, lime juice and sea salt pale ale.</t>
+  </si>
+  <si>
+    <t>Funny Bone</t>
+  </si>
+  <si>
+    <t>Elderflower, Hibiscus &amp; Lavender Pale</t>
   </si>
   <si>
     <t>Ripchord</t>
@@ -142,19 +139,13 @@
     <t>Clapton, London</t>
   </si>
   <si>
-    <t>Barnstormer</t>
+    <t>Beatnik</t>
   </si>
   <si>
     <t>Gipsy Hill</t>
   </si>
   <si>
-    <t>Tart Saison</t>
-  </si>
-  <si>
-    <t>Hiker</t>
-  </si>
-  <si>
-    <t>Triple IPA, thick, wheaty and oaty</t>
+    <t>Pale Ale</t>
   </si>
   <si>
     <t>N1: APA</t>
@@ -187,60 +178,54 @@
     <t>Dry hopped extra pale ale</t>
   </si>
   <si>
-    <t>Urban Underground</t>
-  </si>
-  <si>
-    <t>Hardknott</t>
-  </si>
-  <si>
-    <t>Milton, Cumbria</t>
-  </si>
-  <si>
-    <t>Big, fruity, IPA, with notes of orange, mango and a hint of pepper.</t>
+    <t>Tzatziki Sour</t>
+  </si>
+  <si>
+    <t>Mad Hatter</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Cucumber and Mint Sour</t>
   </si>
   <si>
     <t>Double Nightmare on Bold Street</t>
   </si>
   <si>
-    <t>MadHatter</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
     <t>Creamy milk stout infused with coffee</t>
   </si>
   <si>
+    <t>Lick Face Pale</t>
+  </si>
+  <si>
+    <t>Penny Lane</t>
+  </si>
+  <si>
+    <t>Session IPA</t>
+  </si>
+  <si>
+    <t>Saucery</t>
+  </si>
+  <si>
+    <t>Magic Rock</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Salty Kiss</t>
+  </si>
+  <si>
+    <t>Goseberry Gose with sea buckthorn and salt</t>
+  </si>
+  <si>
     <t>Fantasma</t>
   </si>
   <si>
-    <t>Magic Rock</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
     <t>Gluten Free, Juicy IPA</t>
   </si>
   <si>
-    <t>Inhaler</t>
-  </si>
-  <si>
-    <t>Fruity IPA/Pale Hybrid</t>
-  </si>
-  <si>
-    <t>Saucery</t>
-  </si>
-  <si>
-    <t>Session IPA</t>
-  </si>
-  <si>
-    <t>Salty Kiss</t>
-  </si>
-  <si>
-    <t>Goseberry Gose with sea buckthorn and salt</t>
-  </si>
-  <si>
     <t>Earl Grey IPA</t>
   </si>
   <si>
@@ -250,16 +235,22 @@
     <t>Earl Grey infused IPA</t>
   </si>
   <si>
-    <t>Frazzle Rock</t>
-  </si>
-  <si>
-    <t>Rich chocolate porter with dry smoky finish</t>
-  </si>
-  <si>
-    <t>Chocolate Marble</t>
-  </si>
-  <si>
-    <t>Coffee, cocoa and liquorice Porter with a bitter finish.</t>
+    <t>Dinosaurs will Die</t>
+  </si>
+  <si>
+    <t>Tropical Gose. Collaboration for Manchester Beer Week 2018 with Lily Waite</t>
+  </si>
+  <si>
+    <t>Exotic Peppercorn Vienna Lager</t>
+  </si>
+  <si>
+    <t>Collaboration for Manchester Beer Week 2018 with Melissa Cole</t>
+  </si>
+  <si>
+    <t>Full Guard DIPA</t>
+  </si>
+  <si>
+    <t>Double IPA, soft and juicy</t>
   </si>
   <si>
     <t>Brown</t>
@@ -274,10 +265,10 @@
     <t>Nutty Smooth Brown Ale</t>
   </si>
   <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Easy drinking Pale ale</t>
+    <t>Maple Milk Stout</t>
+  </si>
+  <si>
+    <t>Well bodied stout with Maple Syrup</t>
   </si>
   <si>
     <t>Fusion 2016</t>
@@ -292,24 +283,6 @@
     <t>Old Ale, matured in Somerset Cider Brandy barrels</t>
   </si>
   <si>
-    <t>Eternal</t>
-  </si>
-  <si>
-    <t>Northern Monk</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Generously hopped session IPA</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Modern Pale Ale</t>
-  </si>
-  <si>
     <t>INCRUSéE Balsamic Milk Stout</t>
   </si>
   <si>
@@ -385,7 +358,7 @@
     <t>Breakfast Stout with chocolate and coffee</t>
   </si>
   <si>
-    <t>Suspended in Magic</t>
+    <t>Suspended in Secrets</t>
   </si>
   <si>
     <t>Hazy Pale</t>
@@ -409,10 +382,10 @@
     <t>West Coast IPA, Citrus and Tropical Fruits</t>
   </si>
   <si>
-    <t>Marmalade on Rye</t>
-  </si>
-  <si>
-    <t>Bold and jammy, made with seasonal oranges and spicy rye.</t>
+    <t>Elemental Porter</t>
+  </si>
+  <si>
+    <t>Classic robust porter</t>
   </si>
   <si>
     <t>Modern Helles</t>
@@ -427,6 +400,15 @@
     <t>Mango Sour Beer</t>
   </si>
   <si>
+    <t>Green River</t>
+  </si>
+  <si>
+    <t>Tempest + Duration</t>
+  </si>
+  <si>
+    <t>Summer Session IPA</t>
+  </si>
+  <si>
     <t>Jaipur</t>
   </si>
   <si>
@@ -463,7 +445,7 @@
     <t>Bergamot &amp; raspberry imperial blonde.</t>
   </si>
   <si>
-    <t>Umbral Abyss</t>
+    <t>Zuur Rhubarb</t>
   </si>
   <si>
     <t>Vibrant</t>
@@ -472,12 +454,6 @@
     <t>Lymington</t>
   </si>
   <si>
-    <t>Imperial Coffee Stout (Unfined)</t>
-  </si>
-  <si>
-    <t>Zuur Rhubarb</t>
-  </si>
-  <si>
     <t>Seasonal Fruit Belgium Sour (Rhubarb) (Unfined)</t>
   </si>
   <si>
@@ -511,10 +487,10 @@
     <t>Cherry and Banana Sour</t>
   </si>
   <si>
-    <t>Peach of a Weekend</t>
-  </si>
-  <si>
-    <t>Peach Sour</t>
+    <t>Complete History</t>
+  </si>
+  <si>
+    <t>Jasmine Saison</t>
   </si>
   <si>
     <t>Welcome to the Crumble</t>
@@ -715,120 +691,120 @@
         <v>4.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>4.3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>5.1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>6.4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>6.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>5.5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D14" s="2">
         <v>4.8</v>
@@ -839,801 +815,784 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
-        <v>10.3</v>
+        <v>4.1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2">
         <v>4.2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>8.5</v>
+        <v>4.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>6.8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
-        <v>4.6</v>
+        <v>8.5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2">
-        <v>8.0</v>
+        <v>4.5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2">
-        <v>4.1</v>
+        <v>8.0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2">
-        <v>5.4</v>
+        <v>6.0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2">
-        <v>6.0</v>
+        <v>3.7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2">
-        <v>5.5</v>
+        <v>4.0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2">
-        <v>4.0</v>
+        <v>6.5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2">
-        <v>6.5</v>
+        <v>4.0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D43" s="2">
-        <v>4.0</v>
+        <v>4.6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D46" s="2">
-        <v>9.0</v>
+        <v>4.1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D48" s="2">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2">
         <v>5.9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2">
         <v>4.8</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2">
         <v>4.5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2">
         <v>11.5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2">
-        <v>6.0</v>
+        <v>4.5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D57" s="2">
-        <v>4.5</v>
+        <v>5.0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D58" s="2">
-        <v>5.0</v>
+        <v>5.5</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2">
-        <v>5.5</v>
+        <v>6.0</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1601,7 @@
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <headerFooter>
     <oddHeader>&amp;LChelmsford Summer Beer &amp;&amp; Cider Festival 2018&amp;RKeykeg Listing</oddHeader>
-    <oddFooter>&amp;LLast updated 30/06/2018&amp;Rwww.cbcf.info/keykeg</oddFooter>
+    <oddFooter>&amp;LLast updated 05/07/2018&amp;Rwww.cbcf.info/keykeg</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
